--- a/data/pca/factorExposure/factorExposure_2015-01-02.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-01-02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,21 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +720,54 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.01444007226462539</v>
+        <v>0.011488964044141</v>
       </c>
       <c r="C2">
-        <v>0.0318246982128684</v>
+        <v>-0.05256187395016061</v>
       </c>
       <c r="D2">
-        <v>-0.1318297771081781</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.07096664532969056</v>
+      </c>
+      <c r="E2">
+        <v>-0.1018679617178306</v>
+      </c>
+      <c r="F2">
+        <v>0.1457353618577408</v>
+      </c>
+      <c r="G2">
+        <v>-0.06480585524563411</v>
+      </c>
+      <c r="H2">
+        <v>-0.0610328522229852</v>
+      </c>
+      <c r="I2">
+        <v>0.02532063783290602</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +778,54 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.04112516375035025</v>
+        <v>0.01972034052862472</v>
       </c>
       <c r="C4">
-        <v>0.1195781371915364</v>
+        <v>-0.1426712784218836</v>
       </c>
       <c r="D4">
-        <v>-0.0989663511809105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.0349767583487453</v>
+      </c>
+      <c r="E4">
+        <v>-0.07510041872020766</v>
+      </c>
+      <c r="F4">
+        <v>0.1048279658437945</v>
+      </c>
+      <c r="G4">
+        <v>0.05430615784718881</v>
+      </c>
+      <c r="H4">
+        <v>0.01931084932010571</v>
+      </c>
+      <c r="I4">
+        <v>0.08251672556499288</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +836,344 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>-0.02178923145703958</v>
+        <v>0.03010689675552256</v>
       </c>
       <c r="C6">
-        <v>0.04697455911731556</v>
+        <v>-0.0573091204697825</v>
       </c>
       <c r="D6">
-        <v>-0.08339108431372534</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.04319339990010964</v>
+      </c>
+      <c r="E6">
+        <v>-0.08749652618383237</v>
+      </c>
+      <c r="F6">
+        <v>0.05030364236101586</v>
+      </c>
+      <c r="G6">
+        <v>-0.04115852118562019</v>
+      </c>
+      <c r="H6">
+        <v>0.03701126759890573</v>
+      </c>
+      <c r="I6">
+        <v>0.01926271601017724</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.00886953702034456</v>
+        <v>0.0059136496756809</v>
       </c>
       <c r="C7">
-        <v>0.03680854767250188</v>
+        <v>-0.05422609203571629</v>
       </c>
       <c r="D7">
-        <v>-0.06436036440111446</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.03938116793224596</v>
+      </c>
+      <c r="E7">
+        <v>-0.06888258707866672</v>
+      </c>
+      <c r="F7">
+        <v>0.008959458815937654</v>
+      </c>
+      <c r="G7">
+        <v>0.01497282793656059</v>
+      </c>
+      <c r="H7">
+        <v>0.04194246420973739</v>
+      </c>
+      <c r="I7">
+        <v>0.08463941853615282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.002920653574533363</v>
+        <v>-0.006756780119408456</v>
       </c>
       <c r="C8">
-        <v>0.05061405243127192</v>
+        <v>-0.05944415534414563</v>
       </c>
       <c r="D8">
-        <v>-0.08249625032805993</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.02063792835853257</v>
+      </c>
+      <c r="E8">
+        <v>-0.06601194683477982</v>
+      </c>
+      <c r="F8">
+        <v>0.08401555962682143</v>
+      </c>
+      <c r="G8">
+        <v>0.02525716149414603</v>
+      </c>
+      <c r="H8">
+        <v>-0.05342693826713503</v>
+      </c>
+      <c r="I8">
+        <v>0.02200395009670681</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.02458765975173648</v>
+        <v>0.0116510884656466</v>
       </c>
       <c r="C9">
-        <v>0.09742312085568088</v>
+        <v>-0.1138723512565533</v>
       </c>
       <c r="D9">
-        <v>-0.08770379766900741</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.0323728528750012</v>
+      </c>
+      <c r="E9">
+        <v>-0.06477457229192832</v>
+      </c>
+      <c r="F9">
+        <v>0.06860383211452042</v>
+      </c>
+      <c r="G9">
+        <v>0.004089531966474241</v>
+      </c>
+      <c r="H9">
+        <v>0.03605197057710224</v>
+      </c>
+      <c r="I9">
+        <v>0.08397276319302248</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.2198311770749924</v>
+        <v>0.2416607632106398</v>
       </c>
       <c r="C10">
-        <v>-0.1110269644599302</v>
+        <v>0.08360810016210696</v>
       </c>
       <c r="D10">
-        <v>0.04510700580166142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01776054332846109</v>
+      </c>
+      <c r="E10">
+        <v>0.02256039178635247</v>
+      </c>
+      <c r="F10">
+        <v>0.009341256471487536</v>
+      </c>
+      <c r="G10">
+        <v>0.003758782183788465</v>
+      </c>
+      <c r="H10">
+        <v>0.03516989985923353</v>
+      </c>
+      <c r="I10">
+        <v>0.04281464615692041</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.009579512792844004</v>
+        <v>0.01211379206379881</v>
       </c>
       <c r="C11">
-        <v>0.04266212119461828</v>
+        <v>-0.06624458429399459</v>
       </c>
       <c r="D11">
-        <v>-0.04819693931473261</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.01919137166071798</v>
+      </c>
+      <c r="E11">
+        <v>-0.05395674196849835</v>
+      </c>
+      <c r="F11">
+        <v>0.004030017470442564</v>
+      </c>
+      <c r="G11">
+        <v>0.01273975199202193</v>
+      </c>
+      <c r="H11">
+        <v>0.03184824794978795</v>
+      </c>
+      <c r="I11">
+        <v>0.04200142542213986</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.01325870993297237</v>
+        <v>0.01407255266331996</v>
       </c>
       <c r="C12">
-        <v>0.04488216956511765</v>
+        <v>-0.05592566531517372</v>
       </c>
       <c r="D12">
-        <v>-0.0510989002915309</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02491171709314257</v>
+      </c>
+      <c r="E12">
+        <v>-0.0396528246410359</v>
+      </c>
+      <c r="F12">
+        <v>-0.007100784802535083</v>
+      </c>
+      <c r="G12">
+        <v>-0.01420773246107704</v>
+      </c>
+      <c r="H12">
+        <v>0.02839738629639351</v>
+      </c>
+      <c r="I12">
+        <v>0.04798105904587694</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.01688713070779477</v>
+        <v>0.004514686803159657</v>
       </c>
       <c r="C13">
-        <v>0.05713441909595558</v>
+        <v>-0.09260145907227502</v>
       </c>
       <c r="D13">
-        <v>-0.1309330962537886</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.08159415108040831</v>
+      </c>
+      <c r="E13">
+        <v>-0.1205254793424317</v>
+      </c>
+      <c r="F13">
+        <v>0.04461244786981503</v>
+      </c>
+      <c r="G13">
+        <v>-0.1094985150641343</v>
+      </c>
+      <c r="H13">
+        <v>0.02871330191405204</v>
+      </c>
+      <c r="I13">
+        <v>0.08532390455648314</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.003849987278524165</v>
+        <v>0.005885304351230631</v>
       </c>
       <c r="C14">
-        <v>0.02106855101095578</v>
+        <v>-0.0492598076294025</v>
       </c>
       <c r="D14">
-        <v>-0.05791025999777157</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.02687177361517099</v>
+      </c>
+      <c r="E14">
+        <v>-0.1052541493159967</v>
+      </c>
+      <c r="F14">
+        <v>0.0183722316019582</v>
+      </c>
+      <c r="G14">
+        <v>-0.03823497596040606</v>
+      </c>
+      <c r="H14">
+        <v>0.05900363061529065</v>
+      </c>
+      <c r="I14">
+        <v>0.1384065146243445</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>0.001747313453550307</v>
+        <v>-0.004211403603634509</v>
       </c>
       <c r="C15">
-        <v>0.02573300618362494</v>
+        <v>-0.04862171877706712</v>
       </c>
       <c r="D15">
-        <v>-0.07629139983311617</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.0374055414436673</v>
+      </c>
+      <c r="E15">
+        <v>-0.07393696185801975</v>
+      </c>
+      <c r="F15">
+        <v>0.01762748061642237</v>
+      </c>
+      <c r="G15">
+        <v>0.00638307542222419</v>
+      </c>
+      <c r="H15">
+        <v>0.003719655225318556</v>
+      </c>
+      <c r="I15">
+        <v>0.05589459041702415</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.008839290631885911</v>
+        <v>0.01075523673310856</v>
       </c>
       <c r="C16">
-        <v>0.03919272452744166</v>
+        <v>-0.05644315741500085</v>
       </c>
       <c r="D16">
-        <v>-0.04124434571273395</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02195144513599104</v>
+      </c>
+      <c r="E16">
+        <v>-0.03921734407013411</v>
+      </c>
+      <c r="F16">
+        <v>-0.001282534067028064</v>
+      </c>
+      <c r="G16">
+        <v>-0.0023334969456487</v>
+      </c>
+      <c r="H16">
+        <v>0.03715408524403073</v>
+      </c>
+      <c r="I16">
+        <v>0.04066517537820136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1184,25 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1213,257 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.00983191575352663</v>
+        <v>0.003936223920783045</v>
       </c>
       <c r="C19">
-        <v>0.01526600073142517</v>
+        <v>-0.01191498389611551</v>
       </c>
       <c r="D19">
-        <v>-0.02423489391811169</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.0002290131783303316</v>
+      </c>
+      <c r="E19">
+        <v>-0.009744813899101723</v>
+      </c>
+      <c r="F19">
+        <v>-0.009408124598584797</v>
+      </c>
+      <c r="G19">
+        <v>-0.005894699988019746</v>
+      </c>
+      <c r="H19">
+        <v>-0.02487622479816291</v>
+      </c>
+      <c r="I19">
+        <v>0.02669669792035467</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.00192369055675177</v>
+        <v>0.002276176560481367</v>
       </c>
       <c r="C20">
-        <v>0.04099326893510813</v>
+        <v>-0.06409253414957707</v>
       </c>
       <c r="D20">
-        <v>-0.06471300187905638</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.03851224423593979</v>
+      </c>
+      <c r="E20">
+        <v>-0.06605778030493469</v>
+      </c>
+      <c r="F20">
+        <v>0.007982927294759511</v>
+      </c>
+      <c r="G20">
+        <v>0.01496509354892787</v>
+      </c>
+      <c r="H20">
+        <v>0.06104636980917164</v>
+      </c>
+      <c r="I20">
+        <v>0.06607994797641001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.01623330463672471</v>
+        <v>0.009902451957486746</v>
       </c>
       <c r="C21">
-        <v>0.05854632615956922</v>
+        <v>-0.07022048514532288</v>
       </c>
       <c r="D21">
-        <v>-0.08490884553651372</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.03483188261232554</v>
+      </c>
+      <c r="E21">
+        <v>-0.0793868469959996</v>
+      </c>
+      <c r="F21">
+        <v>0.06222258489035425</v>
+      </c>
+      <c r="G21">
+        <v>-0.1087942479234763</v>
+      </c>
+      <c r="H21">
+        <v>0.002786676408067343</v>
+      </c>
+      <c r="I21">
+        <v>0.1833874591808951</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.001116974771063153</v>
+        <v>-0.009665876942982163</v>
       </c>
       <c r="C22">
-        <v>0.06128280026710663</v>
+        <v>-0.1019526068603102</v>
       </c>
       <c r="D22">
-        <v>-0.1994771931821418</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.1652773411354142</v>
+      </c>
+      <c r="E22">
+        <v>-0.1646585203343472</v>
+      </c>
+      <c r="F22">
+        <v>0.2976557789703927</v>
+      </c>
+      <c r="G22">
+        <v>0.1250271351751718</v>
+      </c>
+      <c r="H22">
+        <v>-0.2143729414862358</v>
+      </c>
+      <c r="I22">
+        <v>-0.4256534409497215</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.001150908336013326</v>
+        <v>-0.006384590228308899</v>
       </c>
       <c r="C23">
-        <v>0.06258868168891489</v>
+        <v>-0.1049462912380899</v>
       </c>
       <c r="D23">
-        <v>-0.19910226329991</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.1675914017720533</v>
+      </c>
+      <c r="E23">
+        <v>-0.1619692771194253</v>
+      </c>
+      <c r="F23">
+        <v>0.2921668910694109</v>
+      </c>
+      <c r="G23">
+        <v>0.1183252509582888</v>
+      </c>
+      <c r="H23">
+        <v>-0.2049439594522438</v>
+      </c>
+      <c r="I23">
+        <v>-0.3980371272160445</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.01187564650448574</v>
+        <v>0.01264161085886889</v>
       </c>
       <c r="C24">
-        <v>0.06304147057345978</v>
+        <v>-0.07429751762715313</v>
       </c>
       <c r="D24">
-        <v>-0.05529773061191598</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.01494108377023084</v>
+      </c>
+      <c r="E24">
+        <v>-0.05386352090867118</v>
+      </c>
+      <c r="F24">
+        <v>-0.0005006864344489369</v>
+      </c>
+      <c r="G24">
+        <v>0.001889360860757719</v>
+      </c>
+      <c r="H24">
+        <v>0.02636277057268634</v>
+      </c>
+      <c r="I24">
+        <v>0.06017703324692724</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.01473202197836927</v>
+        <v>0.01700694732999038</v>
       </c>
       <c r="C25">
-        <v>0.05447590638134629</v>
+        <v>-0.06749009679970157</v>
       </c>
       <c r="D25">
-        <v>-0.04499879273320962</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.01692151295796253</v>
+      </c>
+      <c r="E25">
+        <v>-0.04010285729910163</v>
+      </c>
+      <c r="F25">
+        <v>0.002830193158355919</v>
+      </c>
+      <c r="G25">
+        <v>0.006928318791128079</v>
+      </c>
+      <c r="H25">
+        <v>0.03433793595211321</v>
+      </c>
+      <c r="I25">
+        <v>0.04029635120292163</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.007190265626623321</v>
+        <v>0.01739632946780436</v>
       </c>
       <c r="C26">
-        <v>0.0302743852137591</v>
+        <v>-0.05044605662669766</v>
       </c>
       <c r="D26">
-        <v>-0.05266421751222276</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.0003485322952673067</v>
+      </c>
+      <c r="E26">
+        <v>-0.0836831919321111</v>
+      </c>
+      <c r="F26">
+        <v>0.03339615283458484</v>
+      </c>
+      <c r="G26">
+        <v>-0.008662995284475063</v>
+      </c>
+      <c r="H26">
+        <v>0.02720342874073025</v>
+      </c>
+      <c r="I26">
+        <v>0.127930148604878</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1474,286 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.305241300197697</v>
+        <v>0.3136085699839867</v>
       </c>
       <c r="C28">
-        <v>-0.136603048756317</v>
+        <v>0.1034120440571354</v>
       </c>
       <c r="D28">
-        <v>0.04452823559553813</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01244631415851491</v>
+      </c>
+      <c r="E28">
+        <v>0.03932199438842855</v>
+      </c>
+      <c r="F28">
+        <v>0.06778835970353782</v>
+      </c>
+      <c r="G28">
+        <v>0.04007268253522982</v>
+      </c>
+      <c r="H28">
+        <v>-0.0286877743354469</v>
+      </c>
+      <c r="I28">
+        <v>0.0648360710781738</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.005172179555617447</v>
+        <v>0.004965766738531647</v>
       </c>
       <c r="C29">
-        <v>0.02948784257302729</v>
+        <v>-0.05871240000470686</v>
       </c>
       <c r="D29">
-        <v>-0.06928136028617457</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.03904080620621259</v>
+      </c>
+      <c r="E29">
+        <v>-0.1131356370075776</v>
+      </c>
+      <c r="F29">
+        <v>0.02005965646631504</v>
+      </c>
+      <c r="G29">
+        <v>-0.05668640347120033</v>
+      </c>
+      <c r="H29">
+        <v>0.08582052823994499</v>
+      </c>
+      <c r="I29">
+        <v>0.1729593641569993</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.02681257446582106</v>
+        <v>0.02082308666256751</v>
       </c>
       <c r="C30">
-        <v>0.09473506731209998</v>
+        <v>-0.1207965224182447</v>
       </c>
       <c r="D30">
-        <v>-0.1379837237605254</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.05855988160099347</v>
+      </c>
+      <c r="E30">
+        <v>-0.1142495409303563</v>
+      </c>
+      <c r="F30">
+        <v>0.05565432222294317</v>
+      </c>
+      <c r="G30">
+        <v>0.01666405176064123</v>
+      </c>
+      <c r="H30">
+        <v>0.00377823220897039</v>
+      </c>
+      <c r="I30">
+        <v>0.02755518502951913</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.0157131339510742</v>
+        <v>0.01108791180941048</v>
       </c>
       <c r="C31">
-        <v>0.08866909150037934</v>
+        <v>-0.09820584989883552</v>
       </c>
       <c r="D31">
-        <v>-0.03392854237247463</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>9.851971443254737e-05</v>
+      </c>
+      <c r="E31">
+        <v>-0.02774961419141756</v>
+      </c>
+      <c r="F31">
+        <v>0.002649225012648031</v>
+      </c>
+      <c r="G31">
+        <v>0.0007314618060444141</v>
+      </c>
+      <c r="H31">
+        <v>-0.0206416119942762</v>
+      </c>
+      <c r="I31">
+        <v>0.05822610061665276</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.02134424456153559</v>
+        <v>0.0168306913503729</v>
       </c>
       <c r="C32">
-        <v>0.0513665731435845</v>
+        <v>-0.06103066337825134</v>
       </c>
       <c r="D32">
-        <v>-0.09795144856698672</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.03493765444781058</v>
+      </c>
+      <c r="E32">
+        <v>-0.06087859031552631</v>
+      </c>
+      <c r="F32">
+        <v>0.1091052201105671</v>
+      </c>
+      <c r="G32">
+        <v>-0.04691095772343683</v>
+      </c>
+      <c r="H32">
+        <v>0.01417126234156161</v>
+      </c>
+      <c r="I32">
+        <v>0.09733488858919304</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.00794910152600367</v>
+        <v>0.01021487163852469</v>
       </c>
       <c r="C33">
-        <v>0.06190382294351817</v>
+        <v>-0.08962981250205496</v>
       </c>
       <c r="D33">
-        <v>-0.08752525306977352</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.04775360562042719</v>
+      </c>
+      <c r="E33">
+        <v>-0.08266325817391321</v>
+      </c>
+      <c r="F33">
+        <v>0.01490103838535213</v>
+      </c>
+      <c r="G33">
+        <v>-0.00258358769492331</v>
+      </c>
+      <c r="H33">
+        <v>0.02998519795641216</v>
+      </c>
+      <c r="I33">
+        <v>0.06256725170066126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.01093036323153118</v>
+        <v>0.01314769978976947</v>
       </c>
       <c r="C34">
-        <v>0.05462707582648366</v>
+        <v>-0.05841208651424969</v>
       </c>
       <c r="D34">
-        <v>-0.06210548930593278</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.01555518223665687</v>
+      </c>
+      <c r="E34">
+        <v>-0.04304614612708341</v>
+      </c>
+      <c r="F34">
+        <v>-0.02411595751804666</v>
+      </c>
+      <c r="G34">
+        <v>-0.005708192047609976</v>
+      </c>
+      <c r="H34">
+        <v>0.009975166376172715</v>
+      </c>
+      <c r="I34">
+        <v>0.02786742512248862</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>-0.001708270588871748</v>
+        <v>0.004914188730418908</v>
       </c>
       <c r="C35">
-        <v>0.00199287429077509</v>
+        <v>-0.02425251770815654</v>
       </c>
       <c r="D35">
-        <v>-0.008156825091602237</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01262237503621198</v>
+      </c>
+      <c r="E35">
+        <v>-0.04209054888613509</v>
+      </c>
+      <c r="F35">
+        <v>0.01803484003474832</v>
+      </c>
+      <c r="G35">
+        <v>-0.01489189852949676</v>
+      </c>
+      <c r="H35">
+        <v>0.05145336313669382</v>
+      </c>
+      <c r="I35">
+        <v>0.1008828506599688</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.00610065649946843</v>
+        <v>0.009906474704664705</v>
       </c>
       <c r="C36">
-        <v>0.02930856399128004</v>
+        <v>-0.04183140170864061</v>
       </c>
       <c r="D36">
-        <v>-0.04354673056630288</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.008428646611653561</v>
+      </c>
+      <c r="E36">
+        <v>-0.06694564629832134</v>
+      </c>
+      <c r="F36">
+        <v>0.03650429289708594</v>
+      </c>
+      <c r="G36">
+        <v>-0.007606580298502428</v>
+      </c>
+      <c r="H36">
+        <v>0.0276147427213019</v>
+      </c>
+      <c r="I36">
+        <v>0.07401254021647129</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1764,141 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.006427155543670019</v>
+        <v>0.007955642397044698</v>
       </c>
       <c r="C38">
-        <v>0.01538867933292992</v>
+        <v>-0.04279038801905118</v>
       </c>
       <c r="D38">
-        <v>-0.06684650528971989</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.0383072174741088</v>
+      </c>
+      <c r="E38">
+        <v>-0.07845614702249637</v>
+      </c>
+      <c r="F38">
+        <v>0.01512978482520278</v>
+      </c>
+      <c r="G38">
+        <v>0.0484526623194329</v>
+      </c>
+      <c r="H38">
+        <v>-0.002584927201412924</v>
+      </c>
+      <c r="I38">
+        <v>0.08108342242892377</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.01545751278896817</v>
+        <v>0.01181533559975608</v>
       </c>
       <c r="C39">
-        <v>0.07665983231932165</v>
+        <v>-0.1058474796646895</v>
       </c>
       <c r="D39">
-        <v>-0.1106076638673965</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.03234495765609375</v>
+      </c>
+      <c r="E39">
+        <v>-0.09598538433291529</v>
+      </c>
+      <c r="F39">
+        <v>-0.008325022519347094</v>
+      </c>
+      <c r="G39">
+        <v>-0.01140552873223992</v>
+      </c>
+      <c r="H39">
+        <v>0.03346937870819892</v>
+      </c>
+      <c r="I39">
+        <v>0.05454776533590545</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.006889948042478261</v>
+        <v>0.01032029993847978</v>
       </c>
       <c r="C40">
-        <v>0.01886140428420232</v>
+        <v>-0.04835279519721741</v>
       </c>
       <c r="D40">
-        <v>-0.09186222144266785</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.06308433023207155</v>
+      </c>
+      <c r="E40">
+        <v>-0.1174651859118109</v>
+      </c>
+      <c r="F40">
+        <v>-0.009279049771126044</v>
+      </c>
+      <c r="G40">
+        <v>-0.02259048153170324</v>
+      </c>
+      <c r="H40">
+        <v>0.03296714035918694</v>
+      </c>
+      <c r="I40">
+        <v>0.005533006432364138</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.008913218607784417</v>
+        <v>0.0174214728009239</v>
       </c>
       <c r="C41">
-        <v>0.02470994531355592</v>
+        <v>-0.04384405330000148</v>
       </c>
       <c r="D41">
-        <v>-0.02006760337288056</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01352807219139507</v>
+      </c>
+      <c r="E41">
+        <v>-0.01944413931201677</v>
+      </c>
+      <c r="F41">
+        <v>-0.01457165815827067</v>
+      </c>
+      <c r="G41">
+        <v>0.008010803934958649</v>
+      </c>
+      <c r="H41">
+        <v>0.003803862607448212</v>
+      </c>
+      <c r="I41">
+        <v>0.04475895652524876</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1909,83 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.003898587009281447</v>
+        <v>0.008436611907490002</v>
       </c>
       <c r="C43">
-        <v>0.01843272140411066</v>
+        <v>-0.03545290664008269</v>
       </c>
       <c r="D43">
-        <v>-0.03723468913584559</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.01469909957544387</v>
+      </c>
+      <c r="E43">
+        <v>-0.04476292937148334</v>
+      </c>
+      <c r="F43">
+        <v>-0.002620305450192004</v>
+      </c>
+      <c r="G43">
+        <v>0.01390219828647202</v>
+      </c>
+      <c r="H43">
+        <v>0.01607592592247873</v>
+      </c>
+      <c r="I43">
+        <v>0.05488276119067662</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.01794821953585695</v>
+        <v>0.007631536378102086</v>
       </c>
       <c r="C44">
-        <v>0.0515638348878777</v>
+        <v>-0.073700787634605</v>
       </c>
       <c r="D44">
-        <v>-0.08270800376952939</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.03242778931225699</v>
+      </c>
+      <c r="E44">
+        <v>-0.1005616440251246</v>
+      </c>
+      <c r="F44">
+        <v>0.04489482282034702</v>
+      </c>
+      <c r="G44">
+        <v>0.007085029751605914</v>
+      </c>
+      <c r="H44">
+        <v>-0.005647658247587797</v>
+      </c>
+      <c r="I44">
+        <v>0.02954277111470148</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1996,199 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.0001495658186853375</v>
+        <v>-0.0008791786665641958</v>
       </c>
       <c r="C46">
-        <v>0.03852219468953169</v>
+        <v>-0.05295882615973334</v>
       </c>
       <c r="D46">
-        <v>-0.06923972441354866</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01922237612205115</v>
+      </c>
+      <c r="E46">
+        <v>-0.08689328404405039</v>
+      </c>
+      <c r="F46">
+        <v>0.01685141728179879</v>
+      </c>
+      <c r="G46">
+        <v>-0.01269104197537151</v>
+      </c>
+      <c r="H46">
+        <v>0.05280060191611716</v>
+      </c>
+      <c r="I46">
+        <v>0.1118306446150105</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.04586361398016721</v>
+        <v>0.02949700073396396</v>
       </c>
       <c r="C47">
-        <v>0.11574664988557</v>
+        <v>-0.1146585237113432</v>
       </c>
       <c r="D47">
-        <v>-0.04105820968313339</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.008076219901676599</v>
+      </c>
+      <c r="E47">
+        <v>-0.01680231747785711</v>
+      </c>
+      <c r="F47">
+        <v>-0.002295681290442172</v>
+      </c>
+      <c r="G47">
+        <v>0.01097971400144296</v>
+      </c>
+      <c r="H47">
+        <v>-0.00157457455943315</v>
+      </c>
+      <c r="I47">
+        <v>0.08816974535930755</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.007984588016455223</v>
+        <v>0.01367204638993309</v>
       </c>
       <c r="C48">
-        <v>0.03212178403817716</v>
+        <v>-0.04768817090659459</v>
       </c>
       <c r="D48">
-        <v>-0.04282638977319617</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.0002099090965154572</v>
+      </c>
+      <c r="E48">
+        <v>-0.07674569359502442</v>
+      </c>
+      <c r="F48">
+        <v>0.04622810234749125</v>
+      </c>
+      <c r="G48">
+        <v>-0.001733948374591453</v>
+      </c>
+      <c r="H48">
+        <v>0.03419813268247023</v>
+      </c>
+      <c r="I48">
+        <v>0.120007001005652</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.002956611354190492</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.006854620164257376</v>
       </c>
       <c r="D49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.002017534446809687</v>
+      </c>
+      <c r="E49">
+        <v>-0.004499361971910486</v>
+      </c>
+      <c r="F49">
+        <v>-0.01468538209682004</v>
+      </c>
+      <c r="G49">
+        <v>-0.006744231400796222</v>
+      </c>
+      <c r="H49">
+        <v>0.01300561326411279</v>
+      </c>
+      <c r="I49">
+        <v>-0.009613485765673507</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.01401452416081197</v>
+        <v>0.01153636149758633</v>
       </c>
       <c r="C50">
-        <v>0.05375678072876992</v>
+        <v>-0.07221175543529806</v>
       </c>
       <c r="D50">
-        <v>-0.04383157815969461</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.01707486393908371</v>
+      </c>
+      <c r="E50">
+        <v>-0.03497951304114903</v>
+      </c>
+      <c r="F50">
+        <v>0.0149041131526641</v>
+      </c>
+      <c r="G50">
+        <v>0.009828027826928288</v>
+      </c>
+      <c r="H50">
+        <v>-0.008012144875851262</v>
+      </c>
+      <c r="I50">
+        <v>0.05907708189668272</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.004589177104710422</v>
+        <v>-0.005615034154443177</v>
       </c>
       <c r="C51">
-        <v>0.01851124684204607</v>
+        <v>-0.02955810628027198</v>
       </c>
       <c r="D51">
-        <v>-0.0656779874938941</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.01451391729130178</v>
+      </c>
+      <c r="E51">
+        <v>-0.05978676641155166</v>
+      </c>
+      <c r="F51">
+        <v>0.04857787859864578</v>
+      </c>
+      <c r="G51">
+        <v>-0.01856257868928486</v>
+      </c>
+      <c r="H51">
+        <v>0.001215985767627801</v>
+      </c>
+      <c r="I51">
+        <v>0.1024952118727462</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2199,141 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.08570589975199908</v>
+        <v>0.06267561434638856</v>
       </c>
       <c r="C53">
-        <v>0.156187001356067</v>
+        <v>-0.1632932613595266</v>
       </c>
       <c r="D53">
-        <v>-0.001046696777332344</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.04495054297398412</v>
+      </c>
+      <c r="E53">
+        <v>0.04395868153602497</v>
+      </c>
+      <c r="F53">
+        <v>-0.02544275878996428</v>
+      </c>
+      <c r="G53">
+        <v>0.01480209690789933</v>
+      </c>
+      <c r="H53">
+        <v>-0.03956614114005707</v>
+      </c>
+      <c r="I53">
+        <v>0.02204596574173489</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.006967759530694456</v>
+        <v>0.01286690200632446</v>
       </c>
       <c r="C54">
-        <v>0.03050220826319843</v>
+        <v>-0.05167342460732645</v>
       </c>
       <c r="D54">
-        <v>-0.07775697357279518</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.0452092042340757</v>
+      </c>
+      <c r="E54">
+        <v>-0.05727250306901695</v>
+      </c>
+      <c r="F54">
+        <v>0.011843196335171</v>
+      </c>
+      <c r="G54">
+        <v>0.00358162042082581</v>
+      </c>
+      <c r="H54">
+        <v>0.007919204963708234</v>
+      </c>
+      <c r="I54">
+        <v>0.09083714115105886</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.05947994393425821</v>
+        <v>0.03875518306105592</v>
       </c>
       <c r="C55">
-        <v>0.1124648923896883</v>
+        <v>-0.1149058334044479</v>
       </c>
       <c r="D55">
-        <v>0.003082584339638482</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.05319866805923446</v>
+      </c>
+      <c r="E55">
+        <v>0.01893150929910874</v>
+      </c>
+      <c r="F55">
+        <v>-0.03263852488434606</v>
+      </c>
+      <c r="G55">
+        <v>0.002558734494991881</v>
+      </c>
+      <c r="H55">
+        <v>-0.0456707265738312</v>
+      </c>
+      <c r="I55">
+        <v>0.02470828557915286</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.09400200444159948</v>
+        <v>0.05993954442774507</v>
       </c>
       <c r="C56">
-        <v>0.1693157996287595</v>
+        <v>-0.183240130106072</v>
       </c>
       <c r="D56">
-        <v>-0.02549415085936017</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.05227319853789605</v>
+      </c>
+      <c r="E56">
+        <v>0.03618282849181697</v>
+      </c>
+      <c r="F56">
+        <v>-0.06294916426476903</v>
+      </c>
+      <c r="G56">
+        <v>0.01735887207574384</v>
+      </c>
+      <c r="H56">
+        <v>-0.1257751942979931</v>
+      </c>
+      <c r="I56">
+        <v>0.01894057512363146</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,178 +2344,373 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.01849224445314411</v>
+        <v>0.01150097039919473</v>
       </c>
       <c r="C58">
-        <v>0.06231430545184889</v>
+        <v>-0.1160393242128391</v>
       </c>
       <c r="D58">
-        <v>-0.1981585351708635</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.1477983793747347</v>
+      </c>
+      <c r="E58">
+        <v>-0.1511808151857059</v>
+      </c>
+      <c r="F58">
+        <v>0.2689234604850393</v>
+      </c>
+      <c r="G58">
+        <v>0.05706830488370568</v>
+      </c>
+      <c r="H58">
+        <v>-0.1236500115898555</v>
+      </c>
+      <c r="I58">
+        <v>-0.05525996562011306</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.2364706089668075</v>
+        <v>0.2676497265798105</v>
       </c>
       <c r="C59">
-        <v>-0.08012938900787299</v>
+        <v>0.05336244944838037</v>
       </c>
       <c r="D59">
-        <v>-0.04898553544658092</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.02255210879202244</v>
+      </c>
+      <c r="E59">
+        <v>-0.02541953417160295</v>
+      </c>
+      <c r="F59">
+        <v>0.02868005199146052</v>
+      </c>
+      <c r="G59">
+        <v>-0.01885657144405891</v>
+      </c>
+      <c r="H59">
+        <v>0.003901457210558558</v>
+      </c>
+      <c r="I59">
+        <v>-0.02893398936281897</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.1497276123001894</v>
+        <v>0.1521539767674616</v>
       </c>
       <c r="C60">
-        <v>0.1240335104899198</v>
+        <v>-0.1555382981075152</v>
       </c>
       <c r="D60">
-        <v>-0.09487390357800497</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.03488665761070282</v>
+      </c>
+      <c r="E60">
+        <v>-0.0756957956130333</v>
+      </c>
+      <c r="F60">
+        <v>-0.2288378990483445</v>
+      </c>
+      <c r="G60">
+        <v>-0.09431266703425187</v>
+      </c>
+      <c r="H60">
+        <v>0.1882131282664796</v>
+      </c>
+      <c r="I60">
+        <v>-0.2726753332133531</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.02072253079993224</v>
+        <v>0.0178628328393069</v>
       </c>
       <c r="C61">
-        <v>0.06495833471600046</v>
+        <v>-0.09097360970908415</v>
       </c>
       <c r="D61">
-        <v>-0.0775584912594942</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.02079827682097634</v>
+      </c>
+      <c r="E61">
+        <v>-0.07649294999477481</v>
+      </c>
+      <c r="F61">
+        <v>-0.02040493082066039</v>
+      </c>
+      <c r="G61">
+        <v>0.0005577175217149808</v>
+      </c>
+      <c r="H61">
+        <v>0.02528214283053316</v>
+      </c>
+      <c r="I61">
+        <v>0.06588825345301075</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.0002870808281623571</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.001093859378683897</v>
       </c>
       <c r="D62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.0002432302279037916</v>
+      </c>
+      <c r="E62">
+        <v>0.000620892799063311</v>
+      </c>
+      <c r="F62">
+        <v>0.001956904010122547</v>
+      </c>
+      <c r="G62">
+        <v>0.0001275828761866222</v>
+      </c>
+      <c r="H62">
+        <v>-0.0008057876682713594</v>
+      </c>
+      <c r="I62">
+        <v>0.002943730579658982</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.003185832061221205</v>
+        <v>0.01719916720677665</v>
       </c>
       <c r="C63">
-        <v>0.0460925490477184</v>
+        <v>-0.06382348575428766</v>
       </c>
       <c r="D63">
-        <v>-0.0630441936058358</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.01019591682412474</v>
+      </c>
+      <c r="E63">
+        <v>-0.07511797161064752</v>
+      </c>
+      <c r="F63">
+        <v>0.003893847346309644</v>
+      </c>
+      <c r="G63">
+        <v>-0.004776686895989227</v>
+      </c>
+      <c r="H63">
+        <v>0.02672209104098431</v>
+      </c>
+      <c r="I63">
+        <v>0.07935891722576582</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.03154255759423658</v>
+        <v>0.01719475332324676</v>
       </c>
       <c r="C64">
-        <v>0.1081683785717699</v>
+        <v>-0.1062201362411464</v>
       </c>
       <c r="D64">
-        <v>-0.0233271812123705</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.01161310425285914</v>
+      </c>
+      <c r="E64">
+        <v>-0.02943124425767256</v>
+      </c>
+      <c r="F64">
+        <v>0.01660114093709543</v>
+      </c>
+      <c r="G64">
+        <v>0.01729973433220327</v>
+      </c>
+      <c r="H64">
+        <v>0.058941564294954</v>
+      </c>
+      <c r="I64">
+        <v>-0.01662922872816064</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>-0.01869798513638433</v>
+        <v>0.02362066888067012</v>
       </c>
       <c r="C65">
-        <v>0.03954372065533254</v>
+        <v>-0.06615106593433516</v>
       </c>
       <c r="D65">
-        <v>-0.0871195972134424</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.06262523726583039</v>
+      </c>
+      <c r="E65">
+        <v>-0.09326646996746227</v>
+      </c>
+      <c r="F65">
+        <v>-0.003790111187952405</v>
+      </c>
+      <c r="G65">
+        <v>0.005151762335790772</v>
+      </c>
+      <c r="H65">
+        <v>0.08607645376943819</v>
+      </c>
+      <c r="I65">
+        <v>-0.02182373300880974</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.02097753754340043</v>
+        <v>0.01316475558580793</v>
       </c>
       <c r="C66">
-        <v>0.09477565342271226</v>
+        <v>-0.1308482270832434</v>
       </c>
       <c r="D66">
-        <v>-0.1432633253863013</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.06260234696362946</v>
+      </c>
+      <c r="E66">
+        <v>-0.1049485927104415</v>
+      </c>
+      <c r="F66">
+        <v>0.004281724873955737</v>
+      </c>
+      <c r="G66">
+        <v>-0.003960038939575499</v>
+      </c>
+      <c r="H66">
+        <v>0.003358772632180177</v>
+      </c>
+      <c r="I66">
+        <v>0.04845701783779003</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.01880983306966646</v>
+        <v>0.01830165808096142</v>
       </c>
       <c r="C67">
-        <v>0.01815710640909615</v>
+        <v>-0.04168295878219008</v>
       </c>
       <c r="D67">
-        <v>-0.03521674211607768</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.01231992383434184</v>
+      </c>
+      <c r="E67">
+        <v>-0.06402407803542559</v>
+      </c>
+      <c r="F67">
+        <v>-0.02714761015992844</v>
+      </c>
+      <c r="G67">
+        <v>0.04142551454909917</v>
+      </c>
+      <c r="H67">
+        <v>0.01208042302014897</v>
+      </c>
+      <c r="I67">
+        <v>0.06375190112871552</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.2328093568115775</v>
+        <v>0.2775237630120198</v>
       </c>
       <c r="C68">
-        <v>-0.09639773717766156</v>
+        <v>0.06758003127848519</v>
       </c>
       <c r="D68">
-        <v>-0.01663323097134575</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.04283690491729475</v>
+      </c>
+      <c r="E68">
+        <v>-0.009544843623922139</v>
+      </c>
+      <c r="F68">
+        <v>0.05735501295892453</v>
+      </c>
+      <c r="G68">
+        <v>0.01199214287046975</v>
+      </c>
+      <c r="H68">
+        <v>-0.02457096033524019</v>
+      </c>
+      <c r="I68">
+        <v>-0.01746580499259467</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.03977154059357583</v>
+        <v>0.01675934402374882</v>
       </c>
       <c r="C69">
-        <v>0.1196645712886154</v>
+        <v>-0.1034070247838433</v>
       </c>
       <c r="D69">
-        <v>-0.05259784389222744</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01864552976990557</v>
+      </c>
+      <c r="E69">
+        <v>-0.02625089774359956</v>
+      </c>
+      <c r="F69">
+        <v>-0.0174239577878315</v>
+      </c>
+      <c r="G69">
+        <v>0.004465433069810745</v>
+      </c>
+      <c r="H69">
+        <v>-0.005344084051240058</v>
+      </c>
+      <c r="I69">
+        <v>0.05280262926076496</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2721,750 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.2480961258120696</v>
+        <v>0.2666310874448903</v>
       </c>
       <c r="C71">
-        <v>-0.1167444129578886</v>
+        <v>0.08268936297326167</v>
       </c>
       <c r="D71">
-        <v>-0.01724478087946794</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.01844011861477574</v>
+      </c>
+      <c r="E71">
+        <v>-0.0175940888825882</v>
+      </c>
+      <c r="F71">
+        <v>0.02703524599982242</v>
+      </c>
+      <c r="G71">
+        <v>0.02765893372342141</v>
+      </c>
+      <c r="H71">
+        <v>-0.003467548183723687</v>
+      </c>
+      <c r="I71">
+        <v>0.0728649120974713</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.08143750063371784</v>
+        <v>0.06338647685629466</v>
       </c>
       <c r="C72">
-        <v>0.1167836073924959</v>
+        <v>-0.1367554299294525</v>
       </c>
       <c r="D72">
-        <v>-0.09687879446212806</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.01434941515659842</v>
+      </c>
+      <c r="E72">
+        <v>-0.05407239786853294</v>
+      </c>
+      <c r="F72">
+        <v>-0.03710077801078611</v>
+      </c>
+      <c r="G72">
+        <v>-0.008457984919227526</v>
+      </c>
+      <c r="H72">
+        <v>0.02234640543040628</v>
+      </c>
+      <c r="I72">
+        <v>-0.02293122550101822</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.1232505421482378</v>
+        <v>0.1454494385940898</v>
       </c>
       <c r="C73">
-        <v>0.09347063780736957</v>
+        <v>-0.1573936786721352</v>
       </c>
       <c r="D73">
-        <v>-0.1254836262685933</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.04681794505691389</v>
+      </c>
+      <c r="E73">
+        <v>-0.1686781281682486</v>
+      </c>
+      <c r="F73">
+        <v>-0.3204642714484359</v>
+      </c>
+      <c r="G73">
+        <v>-0.1151497561743179</v>
+      </c>
+      <c r="H73">
+        <v>0.3057360931691739</v>
+      </c>
+      <c r="I73">
+        <v>-0.2841838709733258</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.07278972074254893</v>
+        <v>0.05004579636648013</v>
       </c>
       <c r="C74">
-        <v>0.1374176441710131</v>
+        <v>-0.1365652781404776</v>
       </c>
       <c r="D74">
-        <v>0.04486508150401776</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.06530361037878693</v>
+      </c>
+      <c r="E74">
+        <v>0.04159660547728825</v>
+      </c>
+      <c r="F74">
+        <v>-0.01774468467647072</v>
+      </c>
+      <c r="G74">
+        <v>0.01432851284355145</v>
+      </c>
+      <c r="H74">
+        <v>-0.02496439410641407</v>
+      </c>
+      <c r="I74">
+        <v>0.02623490033918487</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.1739565378053864</v>
+        <v>0.09862768237066215</v>
       </c>
       <c r="C75">
-        <v>0.2278189019904686</v>
+        <v>-0.2359055824737404</v>
       </c>
       <c r="D75">
-        <v>0.01944038889513326</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1080268893393017</v>
+      </c>
+      <c r="E75">
+        <v>0.1029766270552952</v>
+      </c>
+      <c r="F75">
+        <v>-0.1539802304233033</v>
+      </c>
+      <c r="G75">
+        <v>0.1235630690444998</v>
+      </c>
+      <c r="H75">
+        <v>-0.2307336336127761</v>
+      </c>
+      <c r="I75">
+        <v>0.02816613509250778</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.0918460287901532</v>
+        <v>0.05635912419492294</v>
       </c>
       <c r="C76">
-        <v>0.1655571846407506</v>
+        <v>-0.1737931626654028</v>
       </c>
       <c r="D76">
-        <v>-0.01555182133206065</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.0645723967563977</v>
+      </c>
+      <c r="E76">
+        <v>0.02487490821564671</v>
+      </c>
+      <c r="F76">
+        <v>-0.09420177604112584</v>
+      </c>
+      <c r="G76">
+        <v>0.01248938597478397</v>
+      </c>
+      <c r="H76">
+        <v>-0.08278921882352833</v>
+      </c>
+      <c r="I76">
+        <v>0.0517690265503121</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.03059806873820103</v>
+        <v>0.02542157103145521</v>
       </c>
       <c r="C77">
-        <v>0.08876928137239472</v>
+        <v>-0.1502281144268074</v>
       </c>
       <c r="D77">
-        <v>-0.2920046079621886</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.7978959477132328</v>
+      </c>
+      <c r="E77">
+        <v>0.552343428816087</v>
+      </c>
+      <c r="F77">
+        <v>-0.07938282067323041</v>
+      </c>
+      <c r="G77">
+        <v>0.03854770240626249</v>
+      </c>
+      <c r="H77">
+        <v>0.07247846705860446</v>
+      </c>
+      <c r="I77">
+        <v>0.07986247280896432</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.03039179431237325</v>
+        <v>0.02734257916941727</v>
       </c>
       <c r="C78">
-        <v>0.08866487305603762</v>
+        <v>-0.1043219610187632</v>
       </c>
       <c r="D78">
-        <v>-0.1237283517773538</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.01038973905530288</v>
+      </c>
+      <c r="E78">
+        <v>-0.0986806039929973</v>
+      </c>
+      <c r="F78">
+        <v>0.0557690986417302</v>
+      </c>
+      <c r="G78">
+        <v>-0.0294032060039392</v>
+      </c>
+      <c r="H78">
+        <v>-0.09206318430890403</v>
+      </c>
+      <c r="I78">
+        <v>0.1088419716421085</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>-0.0914228334361622</v>
+        <v>0.05733978947296365</v>
       </c>
       <c r="C79">
-        <v>0.4080163594036342</v>
+        <v>-0.2972347401552288</v>
       </c>
       <c r="D79">
-        <v>0.6307666434580406</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.3278836189051049</v>
+      </c>
+      <c r="E79">
+        <v>0.4261831517666111</v>
+      </c>
+      <c r="F79">
+        <v>0.5484087108628346</v>
+      </c>
+      <c r="G79">
+        <v>-0.07227064696166635</v>
+      </c>
+      <c r="H79">
+        <v>0.4798871526027161</v>
+      </c>
+      <c r="I79">
+        <v>-0.1115391642186204</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.0007481605157990821</v>
+        <v>0.008767147783053817</v>
       </c>
       <c r="C80">
-        <v>0.05978086395348232</v>
+        <v>-0.05774032199272217</v>
       </c>
       <c r="D80">
-        <v>-0.04302362466267745</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.003918676846811355</v>
+      </c>
+      <c r="E80">
+        <v>-0.07058790757392883</v>
+      </c>
+      <c r="F80">
+        <v>-0.03131035551483315</v>
+      </c>
+      <c r="G80">
+        <v>-0.06530946050838429</v>
+      </c>
+      <c r="H80">
+        <v>0.01898979912345821</v>
+      </c>
+      <c r="I80">
+        <v>-0.02959444634035349</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.08026471187655582</v>
+        <v>0.03675162498654199</v>
       </c>
       <c r="C81">
-        <v>0.1520278146677074</v>
+        <v>-0.1520849472670513</v>
       </c>
       <c r="D81">
-        <v>0.05014332702845311</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.07394074532055006</v>
+      </c>
+      <c r="E81">
+        <v>0.05639484984771231</v>
+      </c>
+      <c r="F81">
+        <v>-0.01627700733390043</v>
+      </c>
+      <c r="G81">
+        <v>0.02475618758541029</v>
+      </c>
+      <c r="H81">
+        <v>-0.07444669700649104</v>
+      </c>
+      <c r="I81">
+        <v>0.06385323378868887</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>-0.1365005723099285</v>
+        <v>0.07579933693476719</v>
       </c>
       <c r="C82">
-        <v>0.2182217077989069</v>
+        <v>-0.2003760038981566</v>
       </c>
       <c r="D82">
-        <v>0.02360115382504342</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.1066211935797584</v>
+      </c>
+      <c r="E82">
+        <v>0.06486026219015224</v>
+      </c>
+      <c r="F82">
+        <v>-0.08759613111101609</v>
+      </c>
+      <c r="G82">
+        <v>0.007225956096374032</v>
+      </c>
+      <c r="H82">
+        <v>-0.126272673631865</v>
+      </c>
+      <c r="I82">
+        <v>0.08588969680445493</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.003252653422491651</v>
+        <v>0.003456577676055089</v>
       </c>
       <c r="C83">
-        <v>0.0569509500301447</v>
+        <v>-0.01950915363602475</v>
       </c>
       <c r="D83">
-        <v>-0.05074608929280745</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.04632273701045478</v>
+      </c>
+      <c r="E83">
+        <v>0.06295253105161651</v>
+      </c>
+      <c r="F83">
+        <v>0.06885283118889574</v>
+      </c>
+      <c r="G83">
+        <v>-0.9072975147241995</v>
+      </c>
+      <c r="H83">
+        <v>-0.2659666013854159</v>
+      </c>
+      <c r="I83">
+        <v>-0.0540358978412945</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0.002548634689465935</v>
+        <v>-0.00258522127381535</v>
       </c>
       <c r="C84">
-        <v>0.01346968419061573</v>
+        <v>-0.02875089649918521</v>
       </c>
       <c r="D84">
-        <v>-0.03774396398257773</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.02245444058859288</v>
+      </c>
+      <c r="E84">
+        <v>-0.04908462315750257</v>
+      </c>
+      <c r="F84">
+        <v>0.06074492585463353</v>
+      </c>
+      <c r="G84">
+        <v>0.05136379913199161</v>
+      </c>
+      <c r="H84">
+        <v>-0.0328105979922056</v>
+      </c>
+      <c r="I84">
+        <v>0.07027089496535993</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.08742064336077943</v>
+        <v>0.04986957681647997</v>
       </c>
       <c r="C85">
-        <v>0.185371442106486</v>
+        <v>-0.1746900793355447</v>
       </c>
       <c r="D85">
-        <v>0.07588869724303841</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1217485296736477</v>
+      </c>
+      <c r="E85">
+        <v>0.08283215317988374</v>
+      </c>
+      <c r="F85">
+        <v>-0.02854747770286708</v>
+      </c>
+      <c r="G85">
+        <v>0.01845357596726576</v>
+      </c>
+      <c r="H85">
+        <v>-0.07575666228184127</v>
+      </c>
+      <c r="I85">
+        <v>0.02899375274702354</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.02791372689565378</v>
+        <v>0.01691369897511426</v>
       </c>
       <c r="C86">
-        <v>0.03096393029366943</v>
+        <v>-0.06132588990811819</v>
       </c>
       <c r="D86">
-        <v>-0.09224130093149335</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.05188770534789994</v>
+      </c>
+      <c r="E86">
+        <v>-0.04034940471132937</v>
+      </c>
+      <c r="F86">
+        <v>0.07442493866602001</v>
+      </c>
+      <c r="G86">
+        <v>0.03787978512603063</v>
+      </c>
+      <c r="H86">
+        <v>-0.03101642848185335</v>
+      </c>
+      <c r="I86">
+        <v>0.06072387267335431</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.02670609379659442</v>
+        <v>0.0162748227966017</v>
       </c>
       <c r="C87">
-        <v>0.07079375917198551</v>
+        <v>-0.09306808456505763</v>
       </c>
       <c r="D87">
-        <v>-0.1416666912823582</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.07877336723115547</v>
+      </c>
+      <c r="E87">
+        <v>-0.09161836316983069</v>
+      </c>
+      <c r="F87">
+        <v>0.08325362191928699</v>
+      </c>
+      <c r="G87">
+        <v>0.01281672780051422</v>
+      </c>
+      <c r="H87">
+        <v>-0.04845444885009443</v>
+      </c>
+      <c r="I87">
+        <v>0.04287703111859714</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.04067155636766618</v>
+        <v>0.03828996902894354</v>
       </c>
       <c r="C88">
-        <v>0.07644505269723914</v>
+        <v>-0.08405161181098826</v>
       </c>
       <c r="D88">
-        <v>-0.00159755171675086</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.01142300450263128</v>
+      </c>
+      <c r="E88">
+        <v>-0.0184432215365447</v>
+      </c>
+      <c r="F88">
+        <v>-0.02719957967014107</v>
+      </c>
+      <c r="G88">
+        <v>0.007503910529387515</v>
+      </c>
+      <c r="H88">
+        <v>0.009944838321450022</v>
+      </c>
+      <c r="I88">
+        <v>0.01841180291337223</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.4122356506946441</v>
+        <v>0.4072447241166972</v>
       </c>
       <c r="C89">
-        <v>-0.22111932115896</v>
+        <v>0.1540084398119087</v>
       </c>
       <c r="D89">
-        <v>0.0299005195024524</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.02176708465829581</v>
+      </c>
+      <c r="E89">
+        <v>-0.01088737521451557</v>
+      </c>
+      <c r="F89">
+        <v>0.1033672541238369</v>
+      </c>
+      <c r="G89">
+        <v>-0.09584586915814772</v>
+      </c>
+      <c r="H89">
+        <v>-0.08840430283600377</v>
+      </c>
+      <c r="I89">
+        <v>0.02052230651663632</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.3025801211131967</v>
+        <v>0.3195218946030105</v>
       </c>
       <c r="C90">
-        <v>-0.1537054318007512</v>
+        <v>0.09943211378299087</v>
       </c>
       <c r="D90">
-        <v>-0.06384109574061989</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.03764153638794078</v>
+      </c>
+      <c r="E90">
+        <v>-0.04067838281520428</v>
+      </c>
+      <c r="F90">
+        <v>0.01792115046085222</v>
+      </c>
+      <c r="G90">
+        <v>0.01069933057876893</v>
+      </c>
+      <c r="H90">
+        <v>-0.02550745361672612</v>
+      </c>
+      <c r="I90">
+        <v>0.0001362044487275953</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.1035556891860664</v>
+        <v>0.06621502276446616</v>
       </c>
       <c r="C91">
-        <v>0.2134480253564775</v>
+        <v>-0.1838617790732506</v>
       </c>
       <c r="D91">
-        <v>0.07895858764009951</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.09338039788080831</v>
+      </c>
+      <c r="E91">
+        <v>0.1116469115690338</v>
+      </c>
+      <c r="F91">
+        <v>-0.01265308562407608</v>
+      </c>
+      <c r="G91">
+        <v>-0.01857736501971917</v>
+      </c>
+      <c r="H91">
+        <v>-0.04970811985638028</v>
+      </c>
+      <c r="I91">
+        <v>0.01660689424196069</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.3185122874781577</v>
+        <v>0.3430559052801646</v>
       </c>
       <c r="C92">
-        <v>-0.1686533310438922</v>
+        <v>0.1295354972644657</v>
       </c>
       <c r="D92">
-        <v>0.02659917360955108</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.02488921812390026</v>
+      </c>
+      <c r="E92">
+        <v>0.01819223200764314</v>
+      </c>
+      <c r="F92">
+        <v>0.07477279830109569</v>
+      </c>
+      <c r="G92">
+        <v>0.09710038997682405</v>
+      </c>
+      <c r="H92">
+        <v>0.03201481735770332</v>
+      </c>
+      <c r="I92">
+        <v>0.03173250178715992</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.3103641959211488</v>
+        <v>0.3203465305745453</v>
       </c>
       <c r="C93">
-        <v>-0.1601815183798878</v>
+        <v>0.1218257119415756</v>
       </c>
       <c r="D93">
-        <v>0.0540211823667654</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.02725862737667473</v>
+      </c>
+      <c r="E93">
+        <v>0.01981300385545348</v>
+      </c>
+      <c r="F93">
+        <v>0.03544168098984236</v>
+      </c>
+      <c r="G93">
+        <v>0.0148099381061622</v>
+      </c>
+      <c r="H93">
+        <v>0.002210168274870552</v>
+      </c>
+      <c r="I93">
+        <v>0.04898533790458896</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.1781649725473912</v>
+        <v>0.1177728548552786</v>
       </c>
       <c r="C94">
-        <v>0.2559726394893367</v>
+        <v>-0.2524959266633433</v>
       </c>
       <c r="D94">
-        <v>0.07798030989064417</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.1692261107945931</v>
+      </c>
+      <c r="E94">
+        <v>0.1981776969627137</v>
+      </c>
+      <c r="F94">
+        <v>-0.1840149824945326</v>
+      </c>
+      <c r="G94">
+        <v>0.09421588530089454</v>
+      </c>
+      <c r="H94">
+        <v>-0.4245907423545319</v>
+      </c>
+      <c r="I94">
+        <v>-0.09762481753951423</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.04135766994549943</v>
+        <v>0.03861774899856436</v>
       </c>
       <c r="C95">
-        <v>0.04231350161540788</v>
+        <v>-0.09042368595226512</v>
       </c>
       <c r="D95">
-        <v>-0.0653000012537745</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.0469552867625721</v>
+      </c>
+      <c r="E95">
+        <v>-0.07412298377479538</v>
+      </c>
+      <c r="F95">
+        <v>-0.09900434238980804</v>
+      </c>
+      <c r="G95">
+        <v>0.03536611347128331</v>
+      </c>
+      <c r="H95">
+        <v>0.04531972464494412</v>
+      </c>
+      <c r="I95">
+        <v>0.0960821906570751</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3475,83 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.002303011365538185</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.001561601619295894</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.003613633534478938</v>
+      </c>
+      <c r="E97">
+        <v>-0.007615086304147972</v>
+      </c>
+      <c r="F97">
+        <v>0.0006463624993723695</v>
+      </c>
+      <c r="G97">
+        <v>0.007800093473987328</v>
+      </c>
+      <c r="H97">
+        <v>0.003783126860317351</v>
+      </c>
+      <c r="I97">
+        <v>0.001495568729136123</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.1078622233841176</v>
+        <v>0.12974023451561</v>
       </c>
       <c r="C98">
-        <v>0.09532728879991188</v>
+        <v>-0.1427540145339031</v>
       </c>
       <c r="D98">
-        <v>-0.120501258013061</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.02693318791040806</v>
+      </c>
+      <c r="E98">
+        <v>-0.135774751983742</v>
+      </c>
+      <c r="F98">
+        <v>-0.248573243723669</v>
+      </c>
+      <c r="G98">
+        <v>-0.06954317093681019</v>
+      </c>
+      <c r="H98">
+        <v>0.2722183451684786</v>
+      </c>
+      <c r="I98">
+        <v>-0.3135735921898102</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3562,25 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3591,83 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.006228213302370194</v>
+        <v>0.005085477701846551</v>
       </c>
       <c r="C101">
-        <v>0.02863684766473691</v>
+        <v>-0.05748354957418858</v>
       </c>
       <c r="D101">
-        <v>-0.06890309597118348</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.03924910289003624</v>
+      </c>
+      <c r="E101">
+        <v>-0.1117837471538318</v>
+      </c>
+      <c r="F101">
+        <v>0.02010463181569654</v>
+      </c>
+      <c r="G101">
+        <v>-0.05617200168425742</v>
+      </c>
+      <c r="H101">
+        <v>0.08475282327929168</v>
+      </c>
+      <c r="I101">
+        <v>0.1719027391071462</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.06177234567851003</v>
+        <v>0.02307969116446481</v>
       </c>
       <c r="C102">
-        <v>0.1250442676865861</v>
+        <v>-0.08843772092023564</v>
       </c>
       <c r="D102">
-        <v>-0.009441885872169228</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.04608035490300878</v>
+      </c>
+      <c r="E102">
+        <v>0.04415630324179176</v>
+      </c>
+      <c r="F102">
+        <v>-0.04091896007445251</v>
+      </c>
+      <c r="G102">
+        <v>-0.006824533892577492</v>
+      </c>
+      <c r="H102">
+        <v>-0.06757170954488061</v>
+      </c>
+      <c r="I102">
+        <v>0.01356007379133121</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3678,25 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3705,21 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
